--- a/public/templates/soal_aswaja.xlsx
+++ b/public/templates/soal_aswaja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B79CA3-7F59-4D8B-A33A-33A59B2755BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4AB2F4-7B89-4F67-B773-6D2BAA8F7AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="196">
   <si>
     <t>no</t>
   </si>
@@ -719,17 +719,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,169 +1041,181 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1227,10 +1233,12 @@
       <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1248,10 +1256,12 @@
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1269,10 +1279,12 @@
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1290,10 +1302,12 @@
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1311,10 +1325,12 @@
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1332,10 +1348,12 @@
       <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1353,10 +1371,12 @@
       <c r="F14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1374,10 +1394,12 @@
       <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1395,10 +1417,12 @@
       <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1416,10 +1440,12 @@
       <c r="F17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1437,10 +1463,12 @@
       <c r="F18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1458,10 +1486,12 @@
       <c r="F19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1479,10 +1509,12 @@
       <c r="F20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1500,10 +1532,12 @@
       <c r="F21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1521,10 +1555,12 @@
       <c r="F22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1542,10 +1578,12 @@
       <c r="F23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1563,10 +1601,12 @@
       <c r="F24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1584,10 +1624,12 @@
       <c r="F25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1605,10 +1647,12 @@
       <c r="F26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1626,10 +1670,12 @@
       <c r="F27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1647,10 +1693,12 @@
       <c r="F28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1668,10 +1716,12 @@
       <c r="F29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1689,10 +1739,12 @@
       <c r="F30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1710,10 +1762,12 @@
       <c r="F31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1731,10 +1785,12 @@
       <c r="F32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1752,10 +1808,12 @@
       <c r="F33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1773,10 +1831,12 @@
       <c r="F34" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1794,10 +1854,12 @@
       <c r="F35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1815,10 +1877,12 @@
       <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1836,10 +1900,12 @@
       <c r="F37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1857,10 +1923,12 @@
       <c r="F38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1878,10 +1946,12 @@
       <c r="F39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1899,10 +1969,12 @@
       <c r="F40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1920,7 +1992,9 @@
       <c r="F41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">

--- a/public/templates/soal_aswaja.xlsx
+++ b/public/templates/soal_aswaja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4AB2F4-7B89-4F67-B773-6D2BAA8F7AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8162CD1-AAAF-40A7-B9F8-96474072EE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="200">
   <si>
     <t>no</t>
   </si>
@@ -670,6 +670,18 @@
       </rPr>
       <t xml:space="preserve"> adalah….</t>
     </r>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1119,7 +1131,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1142,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1165,7 +1177,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1188,7 +1200,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1211,7 +1223,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1234,7 +1246,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1257,7 +1269,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1280,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1303,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1326,7 +1338,7 @@
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
@@ -1349,7 +1361,7 @@
         <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1372,7 +1384,7 @@
         <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1395,7 +1407,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1418,7 +1430,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1441,7 +1453,7 @@
         <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
@@ -1464,7 +1476,7 @@
         <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
@@ -1487,7 +1499,7 @@
         <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1510,7 +1522,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1533,7 +1545,7 @@
         <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1556,7 +1568,7 @@
         <v>186</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1579,7 +1591,7 @@
         <v>97</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1602,7 +1614,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
@@ -1625,7 +1637,7 @@
         <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1648,7 +1660,7 @@
         <v>111</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1671,7 +1683,7 @@
         <v>115</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1694,7 +1706,7 @@
         <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1717,7 +1729,7 @@
         <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1740,7 +1752,7 @@
         <v>130</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1763,7 +1775,7 @@
         <v>135</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1786,7 +1798,7 @@
         <v>139</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1809,7 +1821,7 @@
         <v>144</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1832,7 +1844,7 @@
         <v>191</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1855,7 +1867,7 @@
         <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1878,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1901,7 +1913,7 @@
         <v>161</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1924,7 +1936,7 @@
         <v>166</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1947,7 +1959,7 @@
         <v>171</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1970,7 +1982,7 @@
         <v>176</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
@@ -1993,7 +2005,7 @@
         <v>181</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
